--- a/hitter_data.xlsx
+++ b/hitter_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,37 +533,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.341</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>601</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>544</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>186</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>243</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -605,52 +605,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>에레디아</t>
+          <t>구자욱</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SSG</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.340</t>
+          <t>0.336</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>515</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>453</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>152</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -660,22 +660,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>224</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>71</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -687,72 +687,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>홍창기</t>
+          <t>김혜성</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>키움</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.339</t>
+          <t>0.335</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>621</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>556</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>104</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>186</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>248</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -769,37 +769,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김혜성</t>
+          <t>홍창기</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>키움</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.330</t>
+          <t>0.332</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>643</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>524</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>109</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -809,37 +809,37 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>216</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -851,77 +851,77 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>구자욱</t>
+          <t>에레디아</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>SSG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.324</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>515</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>466</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>151</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -943,37 +943,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.316</t>
+          <t>0.321</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>530</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>146</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>220</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>85</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>양의지</t>
+          <t>김선빈</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>두산</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.311</t>
+          <t>0.317</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>117</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>465</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>413</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1065,27 +1065,27 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>147</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1107,67 +1107,67 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.310</t>
+          <t>0.316</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>122</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>501</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>446</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>141</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>181</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>46</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -1189,57 +1189,57 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.309</t>
+          <t>0.313</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>583</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>520</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>163</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>269</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>95</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1261,47 +1261,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김민혁</t>
+          <t>전준우</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>롯데</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.305</t>
+          <t>0.309</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>554</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>488</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>151</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1311,27 +1311,27 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>228</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>76</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1343,67 +1343,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>노시환</t>
+          <t>양의지</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>한화</t>
+          <t>두산</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.302</t>
+          <t>0.309</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>505</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>434</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>208</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>68</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>박찬호</t>
+          <t>최형우</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>508</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>431</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1460,42 +1460,42 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>81</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1507,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>마틴</t>
+          <t>박찬호</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1522,62 +1522,62 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>507</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>452</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>136</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>171</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>52</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1589,77 +1589,77 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>최정</t>
+          <t>문보경</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SSG</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.299</t>
+          <t>0.301</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>542</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>469</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>141</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>72</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1671,77 +1671,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>전준우</t>
+          <t>노시환</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>롯데</t>
+          <t>한화</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.299</t>
+          <t>0.298</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>591</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>510</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>152</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -1753,77 +1753,77 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>문성주</t>
+          <t>최정</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>SSG</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.299</t>
+          <t>0.297</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>552</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>471</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>94</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>258</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>87</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1835,77 +1835,77 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>김현준</t>
+          <t>김민혁</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.298</t>
+          <t>0.297</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>113</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>448</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>397</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1917,47 +1917,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>박해민</t>
+          <t>황재균</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.296</t>
+          <t>0.295</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>457</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>407</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1967,22 +1967,22 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>168</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1994,82 +1994,82 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>최형우</t>
+          <t>문성주</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.296</t>
+          <t>0.294</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>534</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>449</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>132</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>167</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>57</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>문보경</t>
+          <t>김현수</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2091,67 +2091,67 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.294</t>
+          <t>0.293</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>556</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>488</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>143</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
@@ -2163,77 +2163,77 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>강민호</t>
+          <t>안치홍</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>롯데</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.293</t>
+          <t>0.292</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>425</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>368</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>170</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2245,67 +2245,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>김현수</t>
+          <t>강민호</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.292</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>495</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>434</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>193</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2327,77 +2327,77 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>안치홍</t>
+          <t>알포드</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>롯데</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.291</t>
+          <t>0.289</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>547</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>491</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>142</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>224</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>70</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>알포드</t>
+          <t>장성우</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2419,67 +2419,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.287</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>464</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>410</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>173</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>65</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2491,77 +2491,77 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>정수빈</t>
+          <t>소크라테스</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>두산</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.287</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>600</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>540</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>155</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>252</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>95</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2573,37 +2573,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>소크라테스</t>
+          <t>마틴</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.283</t>
+          <t>0.287</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>116</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>496</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>429</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2613,12 +2613,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>198</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>89</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2665,37 +2665,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.279</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>605</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>557</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>159</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2705,17 +2705,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>237</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>80</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2737,77 +2737,77 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>박병호</t>
+          <t>박해민</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.278</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>558</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>485</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>174</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>59</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>양석환</t>
+          <t>정수빈</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2829,67 +2829,67 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.276</t>
+          <t>0.284</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>577</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>493</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>182</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2901,32 +2901,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>오지환</t>
+          <t>박병호</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.273</t>
+          <t>0.283</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>493</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>431</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2936,42 +2936,42 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>191</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>87</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2983,77 +2983,77 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>류지혁</t>
+          <t>양석환</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>두산</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.272</t>
+          <t>0.281</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>576</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>519</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>146</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>237</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>89</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3065,72 +3065,72 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>채은성</t>
+          <t>김현준</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>한화</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.270</t>
+          <t>0.275</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>479</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>433</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>150</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>46</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3147,47 +3147,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>허경민</t>
+          <t>김상수</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>두산</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.269</t>
+          <t>0.271</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>512</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>443</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>58</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3197,27 +3197,27 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>150</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>56</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3229,77 +3229,77 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>김상수</t>
+          <t>최지훈</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>SSG</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.268</t>
+          <t>0.269</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>115</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>502</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>461</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -3311,77 +3311,77 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>박성한</t>
+          <t>류지혁</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SSG</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.267</t>
+          <t>0.268</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>522</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>455</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>141</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3393,77 +3393,77 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>장성우</t>
+          <t>오지환</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.267</t>
+          <t>0.268</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>502</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>422</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>113</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>167</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>62</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>최지훈</t>
+          <t>박성한</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3485,67 +3485,67 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.262</t>
+          <t>0.268</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>520</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>452</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>121</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>167</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>47</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3557,77 +3557,77 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>추신수</t>
+          <t>허경민</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SSG</t>
+          <t>두산</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.259</t>
+          <t>0.267</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>473</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>427</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>114</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3639,77 +3639,77 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>김민석</t>
+          <t>강승호</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>롯데</t>
+          <t>두산</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.259</t>
+          <t>0.266</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -3731,37 +3731,37 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.252</t>
+          <t>0.266</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>477</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>113</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3771,17 +3771,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>154</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>49</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3803,77 +3803,77 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>이재현</t>
+          <t>채은성</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한화</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.251</t>
+          <t>0.263</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>592</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>517</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>136</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>23</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>222</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>84</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3885,77 +3885,77 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>박동원</t>
+          <t>김민석</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>롯데</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.248</t>
+          <t>0.256</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>451</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>398</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>135</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>39</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3977,57 +3977,57 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.244</t>
+          <t>0.256</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>460</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>399</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>191</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>최주환</t>
+          <t>추신수</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4059,67 +4059,67 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>456</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>376</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4131,77 +4131,77 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>김주원</t>
+          <t>박동원</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.236</t>
+          <t>0.249</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>481</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>409</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4213,77 +4213,77 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>김재환</t>
+          <t>이재현</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>두산</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.229</t>
+          <t>0.249</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>538</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>458</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>114</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>173</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>60</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4295,77 +4295,323 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>최주환</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SSG</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.237</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>김주원</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.232</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>정은원</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>한화</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.227</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>김재환</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>두산</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.220</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
